--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/R204_NN_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/R204_NN_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,23 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -133,10 +143,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -159,26 +171,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true">
-      <c r="A1" t="s" s="2">
+    <row r="1" s="4" customFormat="true">
+      <c r="A1" t="s" s="4">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" t="s" s="4">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" t="s" s="4">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" t="s" s="4">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" t="s" s="4">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" t="s" s="4">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" t="s" s="4">
         <v>7</v>
       </c>
     </row>
@@ -206,28 +218,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="2">
+      <c r="A3" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B3" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="2">
+      <c r="C3" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D3" t="s" s="2">
+      <c r="D3" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="2">
+      <c r="E3" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="2">
+      <c r="F3" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="2">
+      <c r="G3" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="2">
+      <c r="H3" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -252,28 +264,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="2">
+      <c r="B5" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="2">
+      <c r="C5" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="2">
+      <c r="D5" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="2">
+      <c r="E5" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="2">
+      <c r="F5" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="2">
+      <c r="G5" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="2">
+      <c r="H5" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="2">
+      <c r="I5" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1869,10 +1881,10 @@
       <c r="I60">
         <f>((C60-C59)^2+(D60- D59)^2)^.5</f>
       </c>
-      <c r="J60" s="2" t="s">
+      <c r="J60" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K60" s="2" t="s">
+      <c r="K60" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L60" t="n">
@@ -1916,28 +1928,28 @@
       </c>
     </row>
     <row r="62">
-      <c r="A62" t="s" s="2">
+      <c r="A62" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B62" t="s" s="2">
+      <c r="B62" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C62" t="s" s="2">
+      <c r="C62" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D62" t="s" s="2">
+      <c r="D62" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E62" t="s" s="2">
+      <c r="E62" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F62" t="s" s="2">
+      <c r="F62" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G62" t="s" s="2">
+      <c r="G62" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H62" t="s" s="2">
+      <c r="H62" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1962,28 +1974,28 @@
       </c>
     </row>
     <row r="64">
-      <c r="B64" t="s" s="2">
+      <c r="B64" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C64" t="s" s="2">
+      <c r="C64" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D64" t="s" s="2">
+      <c r="D64" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E64" t="s" s="2">
+      <c r="E64" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F64" t="s" s="2">
+      <c r="F64" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G64" t="s" s="2">
+      <c r="G64" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H64" t="s" s="2">
+      <c r="H64" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I64" t="s" s="2">
+      <c r="I64" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2825,10 +2837,10 @@
       <c r="I93">
         <f>((C93-C92)^2+(D93- D92)^2)^.5</f>
       </c>
-      <c r="J93" s="2" t="s">
+      <c r="J93" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K93" s="2" t="s">
+      <c r="K93" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L93" t="n">
@@ -2872,28 +2884,28 @@
       </c>
     </row>
     <row r="95">
-      <c r="A95" t="s" s="2">
+      <c r="A95" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B95" t="s" s="2">
+      <c r="B95" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C95" t="s" s="2">
+      <c r="C95" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D95" t="s" s="2">
+      <c r="D95" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E95" t="s" s="2">
+      <c r="E95" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F95" t="s" s="2">
+      <c r="F95" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G95" t="s" s="2">
+      <c r="G95" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H95" t="s" s="2">
+      <c r="H95" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2918,28 +2930,28 @@
       </c>
     </row>
     <row r="97">
-      <c r="B97" t="s" s="2">
+      <c r="B97" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C97" t="s" s="2">
+      <c r="C97" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D97" t="s" s="2">
+      <c r="D97" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E97" t="s" s="2">
+      <c r="E97" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F97" t="s" s="2">
+      <c r="F97" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G97" t="s" s="2">
+      <c r="G97" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H97" t="s" s="2">
+      <c r="H97" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I97" t="s" s="2">
+      <c r="I97" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3085,10 +3097,10 @@
       <c r="I102">
         <f>((C102-C101)^2+(D102- D101)^2)^.5</f>
       </c>
-      <c r="J102" s="2" t="s">
+      <c r="J102" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K102" s="2" t="s">
+      <c r="K102" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L102" t="n">
@@ -3132,28 +3144,28 @@
       </c>
     </row>
     <row r="104">
-      <c r="A104" t="s" s="2">
+      <c r="A104" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B104" t="s" s="2">
+      <c r="B104" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C104" t="s" s="2">
+      <c r="C104" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D104" t="s" s="2">
+      <c r="D104" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E104" t="s" s="2">
+      <c r="E104" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F104" t="s" s="2">
+      <c r="F104" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G104" t="s" s="2">
+      <c r="G104" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H104" t="s" s="2">
+      <c r="H104" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3178,28 +3190,28 @@
       </c>
     </row>
     <row r="106">
-      <c r="B106" t="s" s="2">
+      <c r="B106" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C106" t="s" s="2">
+      <c r="C106" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D106" t="s" s="2">
+      <c r="D106" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E106" t="s" s="2">
+      <c r="E106" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F106" t="s" s="2">
+      <c r="F106" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G106" t="s" s="2">
+      <c r="G106" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H106" t="s" s="2">
+      <c r="H106" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I106" t="s" s="2">
+      <c r="I106" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3403,10 +3415,10 @@
       <c r="I113">
         <f>((C113-C112)^2+(D113- D112)^2)^.5</f>
       </c>
-      <c r="J113" s="2" t="s">
+      <c r="J113" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K113" s="2" t="s">
+      <c r="K113" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L113" t="n">
@@ -3450,28 +3462,28 @@
       </c>
     </row>
     <row r="115">
-      <c r="A115" t="s" s="2">
+      <c r="A115" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B115" t="s" s="2">
+      <c r="B115" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C115" t="s" s="2">
+      <c r="C115" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D115" t="s" s="2">
+      <c r="D115" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E115" t="s" s="2">
+      <c r="E115" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F115" t="s" s="2">
+      <c r="F115" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G115" t="s" s="2">
+      <c r="G115" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H115" t="s" s="2">
+      <c r="H115" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3496,28 +3508,28 @@
       </c>
     </row>
     <row r="117">
-      <c r="B117" t="s" s="2">
+      <c r="B117" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C117" t="s" s="2">
+      <c r="C117" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D117" t="s" s="2">
+      <c r="D117" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E117" t="s" s="2">
+      <c r="E117" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F117" t="s" s="2">
+      <c r="F117" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G117" t="s" s="2">
+      <c r="G117" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H117" t="s" s="2">
+      <c r="H117" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I117" t="s" s="2">
+      <c r="I117" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3663,10 +3675,10 @@
       <c r="I122">
         <f>((C122-C121)^2+(D122- D121)^2)^.5</f>
       </c>
-      <c r="J122" s="2" t="s">
+      <c r="J122" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K122" s="2" t="s">
+      <c r="K122" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L122" t="n">
@@ -3710,28 +3722,28 @@
       </c>
     </row>
     <row r="124">
-      <c r="A124" t="s" s="2">
+      <c r="A124" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B124" t="s" s="2">
+      <c r="B124" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C124" t="s" s="2">
+      <c r="C124" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D124" t="s" s="2">
+      <c r="D124" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E124" t="s" s="2">
+      <c r="E124" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F124" t="s" s="2">
+      <c r="F124" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G124" t="s" s="2">
+      <c r="G124" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H124" t="s" s="2">
+      <c r="H124" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3756,28 +3768,28 @@
       </c>
     </row>
     <row r="126">
-      <c r="B126" t="s" s="2">
+      <c r="B126" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C126" t="s" s="2">
+      <c r="C126" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D126" t="s" s="2">
+      <c r="D126" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E126" t="s" s="2">
+      <c r="E126" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F126" t="s" s="2">
+      <c r="F126" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G126" t="s" s="2">
+      <c r="G126" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H126" t="s" s="2">
+      <c r="H126" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I126" t="s" s="2">
+      <c r="I126" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3894,10 +3906,10 @@
       <c r="I130">
         <f>((C130-C129)^2+(D130- D129)^2)^.5</f>
       </c>
-      <c r="J130" s="2" t="s">
+      <c r="J130" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K130" s="2" t="s">
+      <c r="K130" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L130" t="n">
@@ -3941,28 +3953,28 @@
       </c>
     </row>
     <row r="132">
-      <c r="A132" t="s" s="2">
+      <c r="A132" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B132" t="s" s="2">
+      <c r="B132" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C132" t="s" s="2">
+      <c r="C132" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D132" t="s" s="2">
+      <c r="D132" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E132" t="s" s="2">
+      <c r="E132" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F132" t="s" s="2">
+      <c r="F132" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G132" t="s" s="2">
+      <c r="G132" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H132" t="s" s="2">
+      <c r="H132" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3987,28 +3999,28 @@
       </c>
     </row>
     <row r="134">
-      <c r="B134" t="s" s="2">
+      <c r="B134" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C134" t="s" s="2">
+      <c r="C134" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D134" t="s" s="2">
+      <c r="D134" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E134" t="s" s="2">
+      <c r="E134" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F134" t="s" s="2">
+      <c r="F134" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G134" t="s" s="2">
+      <c r="G134" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H134" t="s" s="2">
+      <c r="H134" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I134" t="s" s="2">
+      <c r="I134" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4067,10 +4079,10 @@
       <c r="I136">
         <f>((C136-C135)^2+(D136- D135)^2)^.5</f>
       </c>
-      <c r="J136" s="2" t="s">
+      <c r="J136" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K136" s="2" t="s">
+      <c r="K136" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L136" t="n">
